--- a/Barroc IT - Documentatie/Steven/checklist pva .xlsx
+++ b/Barroc IT - Documentatie/Steven/checklist pva .xlsx
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +998,9 @@
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="13">
+        <v>1</v>
+      </c>
       <c r="C26">
         <v>1</v>
       </c>
@@ -1007,7 +1009,9 @@
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
       <c r="C27">
         <v>1</v>
       </c>
@@ -1036,7 +1040,9 @@
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
       <c r="C30">
         <v>1</v>
       </c>
@@ -1054,7 +1060,9 @@
       <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
       <c r="C32" s="6">
         <v>1</v>
       </c>
@@ -1114,7 +1122,9 @@
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" s="19">
+        <v>1</v>
+      </c>
       <c r="C40">
         <v>1</v>
       </c>
@@ -1398,7 +1408,9 @@
       <c r="A73" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="13"/>
+      <c r="B73" s="13">
+        <v>1</v>
+      </c>
       <c r="C73">
         <v>1</v>
       </c>
@@ -1416,7 +1428,9 @@
       <c r="A75" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="13"/>
+      <c r="B75" s="13">
+        <v>1</v>
+      </c>
       <c r="C75">
         <v>1</v>
       </c>
@@ -1434,7 +1448,9 @@
       <c r="A77" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="13"/>
+      <c r="B77" s="13">
+        <v>1</v>
+      </c>
       <c r="C77">
         <v>1</v>
       </c>
@@ -1607,7 +1623,9 @@
       <c r="A98" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B98" s="13"/>
+      <c r="B98" s="13">
+        <v>1</v>
+      </c>
       <c r="C98">
         <v>1</v>
       </c>
@@ -1616,7 +1634,9 @@
       <c r="A99" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B99" s="13"/>
+      <c r="B99" s="13">
+        <v>1</v>
+      </c>
       <c r="C99">
         <v>1</v>
       </c>
@@ -1671,7 +1691,9 @@
       <c r="A106" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B106" s="13"/>
+      <c r="B106" s="13">
+        <v>1</v>
+      </c>
       <c r="C106">
         <v>1</v>
       </c>
@@ -1699,7 +1721,9 @@
       <c r="A110" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B110" s="16"/>
+      <c r="B110" s="16">
+        <v>1</v>
+      </c>
       <c r="C110">
         <v>1</v>
       </c>
@@ -1710,7 +1734,7 @@
       </c>
       <c r="B111">
         <f t="shared" ref="B111:C111" si="0">SUM(B8:B110)</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C111">
         <f t="shared" si="0"/>
@@ -1723,7 +1747,7 @@
       </c>
       <c r="B112" s="10">
         <f>B111/$C111*10</f>
-        <v>5.4285714285714279</v>
+        <v>7.1428571428571432</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -1781,6 +1805,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007BEF67E862DF8142A1371705B0F69A4C" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="649c850f7c3b7898c616adec0832281d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1829,15 +1862,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AFAB33E-1031-49BA-A588-1C5301A99807}">
   <ds:schemaRefs>
@@ -1847,6 +1871,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC4B3EB1-E67D-4B64-B435-42996348D439}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767D2201-1A64-465C-AA66-9281A53B5F66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1859,12 +1891,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC4B3EB1-E67D-4B64-B435-42996348D439}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>